--- a/Designs/Spectrograph/DOC/src/material_bill.xlsx
+++ b/Designs/Spectrograph/DOC/src/material_bill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>TRIACSHARP02A</t>
   </si>
@@ -121,14 +121,52 @@
   </si>
   <si>
     <t>trochu</t>
+  </si>
+  <si>
+    <t>Funkcni vzor</t>
+  </si>
+  <si>
+    <t>COLORES 1</t>
+  </si>
+  <si>
+    <t>ATMEGA801B+Atmega386+patice na krystal+16MHz krystal</t>
+  </si>
+  <si>
+    <t>ATMEGA801B+Atmega386+16MHz krystal+bez RESET tlacitka</t>
+  </si>
+  <si>
+    <t>pocet</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>cena za ks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -156,9 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -460,317 +500,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625"/>
-    <col min="2" max="257" width="8.5703125"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="257" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="G10">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <f>SUM(B8:B18)</f>
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18*2</f>
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19*B19</f>
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20*B20</f>
-        <v>4</v>
-      </c>
-      <c r="G20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <f>C21*B21</f>
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
-        <f>SUM(D19:D21)</f>
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <f>D18-E21</f>
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="G22">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -778,7 +798,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -786,53 +809,558 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G35" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="257" width="8.5703125"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="257" width="8.5703125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUM(B8:B18)</f>
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18*2</f>
+        <v>74</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19*B19</f>
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20*B20</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21*B21</f>
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <f>SUM(D19:D21)</f>
+        <v>28</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f>D18-E21</f>
+        <v>46</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Designs/Spectrograph/DOC/src/material_bill.xlsx
+++ b/Designs/Spectrograph/DOC/src/material_bill.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
